--- a/draft-aid/my_guys.xlsx
+++ b/draft-aid/my_guys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\draft-aid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D372AC-73AB-4665-BF37-F8D1C9D241A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B841D3-E38E-4D22-8EAB-04EC9C865946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F812861F-0E99-49EA-A358-7BCE9818607E}"/>
   </bookViews>
@@ -25,9 +25,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>player</t>
+  </si>
+  <si>
+    <t>Saquon Barkley</t>
+  </si>
+  <si>
+    <t>Kyler Murray</t>
+  </si>
+  <si>
+    <t>Davante Adams</t>
+  </si>
+  <si>
+    <t>Dak Prescott</t>
+  </si>
+  <si>
+    <t>Jonathan Taylor</t>
+  </si>
+  <si>
+    <t>Alvin Kamara</t>
+  </si>
+  <si>
+    <t>Tyreek Hill</t>
+  </si>
+  <si>
+    <t>Lamar Jackson</t>
+  </si>
+  <si>
+    <t>DK Metcalf</t>
+  </si>
+  <si>
+    <t>A.J. Brown</t>
+  </si>
+  <si>
+    <t>Derrick Henry</t>
+  </si>
+  <si>
+    <t>Justin Jefferson</t>
+  </si>
+  <si>
+    <t>Nick Chubb</t>
+  </si>
+  <si>
+    <t>Stefon Diggs</t>
+  </si>
+  <si>
+    <t>Travis Kelce</t>
   </si>
 </sst>
 </file>
@@ -405,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CABACE9-A17E-4D39-ABA3-80A08B748231}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,6 +463,81 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
